--- a/control_versiones.xlsx
+++ b/control_versiones.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Control Versiones" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Versión 1.4</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">Se genero el Modificar Partido con Fragments. </t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -124,15 +127,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,73 +499,85 @@
       <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1048576" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
